--- a/data metopel.xlsx
+++ b/data metopel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\metodologi penelitian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\metodologi penelitian\Panji Dwi Prawira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4B043C9-EAAE-4B60-825D-9A51B67F5971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F39642-FF62-487B-B9E8-E0A9647F22ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12B5CC70-DEED-4E6C-B141-ABE40C210112}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
